--- a/model_tracking.xlsx
+++ b/model_tracking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2062,6 +2062,1498 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gemma 7B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Gemma-7B.git</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"prompt\", \"shape\": [1], \"data\": [\"What is quantization?\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{"model_name":"inferless-model","model_version":"1","outputs":[{"name":"gresult","datatype":"BYTES","shape":[1],"data":["\n\nWater is pumped at high speed from a reservoir into a large-diameter pipe. This pipe connects to a smaller diameter pipe. There is no change in elevation. Represent the water flow from the large pipe to the smaller pipe in multiple ways—a sketch, a bar chart, and an equation.\n\n(a) Draw the structure of the trisaccharide consisting of two $\\alpha$-D-glucopyranose units and one $\\beta$-D-glucopyranose unit, with a $\\beta$ -1,3-glycosidic link between the first and second $\\alpha$-D-glucopyranose units, a $\\alpha$1,4-glycosidic link between the second and third units, and the second $\\alpha$-D-glucopyranose unit in the $\\mathrm{C} 5$ epimeric form.\n\n(b) Draw the structure of the trisaccharide obtained by hydrolysis of the trisaccharide in part (a).\n\nA light ray traveling in water $(n=1.33)$ passes from the water into a rectangular piece of glass ( $n=1.5)$. Is the light ray bent toward the surface normal (the axis drawn\n\nperpendicular to the surface) or away from it?"]}]}</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "86.9%",
+    "memory_used": "71173.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+  dims: 1
+}
+output {
+  name: "gresult"
+  data_type: TYPE_STRING
+  dims: 1
+}
+instance_group {
+  kind: KIND_GPU
+}
+default_model_filename: "model.py"
+backend: "python"
+I0411 05:13:12.119989 1 model_lifecycle.cc:462] loading: inferless-model:1
+I0411 05:13:12.120131 1 backend_model.cc:362] Adding default backend config setting: default-max-batch-size,4
+I0411 05:13:12.122573 1 python_be.cc:2011] TRITONBACKEND_ModelInitialize: inferless-model (version 1)
+I0411 05:13:12.143298 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_3 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model
+I0411 05:13:13.118334 1 pb_stub.cc:833] TypeError: TritonPythonModel.finalize() missing 1 required positional argument: 'args'
+I0411 05:13:15.800050 1 python_be.cc:1791] model configuration:
+{
+    "name": "inferless-model",
+    "platform": "",
+    "backend": "python",
+    "version_policy": {
+        "latest": {
+            "num_versions": 1
+        }
+    },
+    "max_batch_size": 0,
+    "input": [
+        {
+            "name": "prompt",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        }
+    ],
+    "output": [
+        {
+            "name": "gresult",
+            "data_type": "TYPE_STRING",
+            "dims": [
+                1
+            ],
+            "label_filename": "",
+            "is_shape_tensor": false
+        }
+    ],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 05:13:16.439402 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 05:13:16.440889 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 05:13:16.447948 1 python_be.cc:2034] TRITONBACKEND_ModelFinalize: delete model state
+I0411 05:13:16.447986 1 model_lifecycle.cc:608] successfully unloaded 'inferless-model' version 1
+I0411 05:13:16.461552 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_4 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+INFO 04-11 05:13:18 llm_engine.py:79] Initializing an LLM engine with config: model='google/gemma-7b', tokenizer='google/gemma-7b', tokenizer_mode=auto, revision=None, tokenizer_revision=None, trust_remote_code=False, dtype=torch.bfloat16, max_seq_len=8192, download_dir=None, load_format=auto, tensor_parallel_size=1, disable_custom_all_reduce=False, quantization=None, enforce_eager=False, kv_cache_dtype=auto, device_config=cuda, seed=0)
+INFO 04-11 05:13:21 weight_utils.py:163] Using model weights format ['*.safetensors']
+INFO 04-11 05:13:24 llm_engine.py:337] # GPU blocks: 7604, # CPU blocks: 585
+INFO 04-11 05:13:28 model_runner.py:676] Capturing the model for CUDA graphs. This may lead to unexpected consequences if the model is not static. To run the model in eager mode, set 'enforce_eager=True' or use '--enforce-eager' in the CLI.
+INFO 04-11 05:13:28 model_runner.py:680] CUDA graphs can take additional 1~3 GiB memory per GPU. If you are running out of memory, consider decreasing `gpu_memory_utilization` or enforcing eager mode. You can also reduce the `max_num_seqs` as needed to decrease memory usage.
+INFO 04-11 05:13:31 model_runner.py:748] Graph capturing finished in 3 secs.
+I0411 05:13:31.908753 1 python_be.cc:2076] TRITONBACKEND_ModelInstanceInitialize: instance initialization successful inferless-model_0 (device 0)
+I0411 05:13:31.908858 1 backend_model_instance.cc:806] Starting backend thread for inferless-model_0 at nice 0 on device 0...
+I0411 05:13:31.909096 1 model_lifecycle.cc:815] successfully loaded 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:14:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Multi_Lora_Adapter</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Multi_LoRA_Adapter.git</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"prompt\", \"shape\": [1], \"data\": [\"Who are you?\"], \"datatype\": \"BYTES\"}, {\"name\": \"adapter_name\", \"shape\": [1], \"data\": [\"dpo\"], \"datatype\": 
+\"BYTES\"}, {\"name\": \"temperature\", \"optional\": true, \"shape\": [1], \"data\": [0.7], \"datatype\": \"FP32\"}, {\"name\": \"repetition_penalty\", \"optional\": true, \"shape\": [1], \"data\": 
+[1.18], \"datatype\": \"FP32\"}, {\"name\": \"max_new_tokens\", \"optional\": true, \"shape\": [1], \"data\": [128], \"datatype\": \"INT16\"}]}"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{"model_name":"inferless-model","model_version":"1","outputs":[{"name":"generated_result","datatype":"BYTES","shape":[1],"data":["Who are you?\n\nI’m a 25 year old, born and raised in the Netherlands. I studied International Business at the University of Groningen (RUG) and graduated with honors in June 2016. During my studies I did an exchange semester at the University of California, Santa Barbara (UCSB). After graduation I worked for two years as a consultant at Deloitte Consulting before starting my MBA at INSEAD in September 2018.\n\nWhy did you decide to do an MBA?\n\nAfter working for two years as a management consultant, I"]}]}</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "36.6%",
+    "memory_used": "30011.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+        {
+            "name": "adapter_name",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        },
+        {
+            "name": "temperature",
+            "data_type": "TYPE_FP32",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": true
+        },
+        {
+            "name": "repetition_penalty",
+            "data_type": "TYPE_FP32",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": true
+        },
+        {
+            "name": "max_new_tokens",
+            "data_type": "TYPE_INT16",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": true
+        }
+    ],
+    "output": [
+        {
+            "name": "generated_result",
+            "data_type": "TYPE_STRING",
+            "dims": [
+                1
+            ],
+            "label_filename": "",
+            "is_shape_tensor": false
+        }
+    ],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 05:24:27.677622 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 05:24:27.678742 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 05:24:27.701830 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_4 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+Loading checkpoint shards:   0% 0/2 [00:00&lt;?, ?it/s]
+Loading checkpoint shards:  50% 1/2 [00:01&lt;00:01,  1.26s/it]
+Loading checkpoint shards: 100% 2/2 [00:01&lt;00:00,  1.13it/s]
+Loading checkpoint shards: 100% 2/2 [00:01&lt;00:00,  1.06it/s]
+I0411 05:24:40.232545 1 python_be.cc:2076] TRITONBACKEND_ModelInstanceInitialize: instance initialization successful inferless-model_0 (device 0)
+I0411 05:24:40.232668 1 backend_model_instance.cc:806] Starting backend thread for inferless-model_0 at nice 0 on device 0...
+I0411 05:24:40.232886 1 model_lifecycle.cc:815] successfully loaded 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mixral 8X7B</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Mixral-8x7B.git</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Codellama 70B</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/CodeLlama-70B.git</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bge Base En V1.5</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/bge-base-en-v1.5.git</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Container ID not available</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:43:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Codellama13B With Adaptor</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/CodeLlama13b-with-adaptor.git</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"prompt\", \"shape\": [1], \"data\": [\"Write a Hello World.\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{"error":"Request for unknown model: 'inferless-model' has no available versions"}</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.6%",
+    "memory_used": "491.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+  dims: 1
+}
+instance_group {
+  kind: KIND_GPU
+}
+default_model_filename: "model.py"
+backend: "python"
+I0411 05:50:24.012746 1 model_lifecycle.cc:462] loading: inferless-model:1
+I0411 05:50:24.013069 1 backend_model.cc:362] Adding default backend config setting: default-max-batch-size,4
+I0411 05:50:24.013100 1 shared_library.cc:112] OpenLibraryHandle: /opt/tritonserver/backends/python/libtriton_python.so
+I0411 05:50:24.014269 1 python_be.cc:1811] 'python' TRITONBACKEND API version: 1.13
+I0411 05:50:24.014285 1 python_be.cc:1833] backend configuration:
+{"cmdline":{"auto-complete-config":"true","backend-directory":"/opt/tritonserver/backends","min-compute-capability":"6.000000","default-max-batch-size":"4"}}
+I0411 05:50:24.014308 1 python_be.cc:1963] Shared memory configuration is shm-default-byte-size=67108864,shm-growth-byte-size=67108864,stub-timeout-seconds=30
+I0411 05:50:24.014439 1 python_be.cc:2209] TRITONBACKEND_GetBackendAttribute: setting attributes
+I0411 05:50:24.016596 1 python_be.cc:2011] TRITONBACKEND_ModelInitialize: inferless-model (version 1)
+I0411 05:50:24.016936 1 model_config_utils.cc:1839] ModelConfig 64-bit fields:
+I0411 05:50:24.016951 1 model_config_utils.cc:1841] 	ModelConfig::dynamic_batching::default_queue_policy::default_timeout_microseconds
+I0411 05:50:24.016957 1 model_config_utils.cc:1841] 	ModelConfig::dynamic_batching::max_queue_delay_microseconds
+I0411 05:50:24.016962 1 model_config_utils.cc:1841] 	ModelConfig::dynamic_batching::priority_queue_policy::value::default_timeout_microseconds
+I0411 05:50:24.016967 1 model_config_utils.cc:1841] 	ModelConfig::ensemble_scheduling::step::model_version
+I0411 05:50:24.016972 1 model_config_utils.cc:1841] 	ModelConfig::input::dims
+I0411 05:50:24.016977 1 model_config_utils.cc:1841] 	ModelConfig::input::reshape::shape
+I0411 05:50:24.016986 1 model_config_utils.cc:1841] 	ModelConfig::instance_group::secondary_devices::device_id
+I0411 05:50:24.016994 1 model_config_utils.cc:1841] 	ModelConfig::model_warmup::inputs::value::dims
+I0411 05:50:24.017002 1 model_config_utils.cc:1841] 	ModelConfig::optimization::cuda::graph_spec::graph_lower_bound::input::value::dim
+I0411 05:50:24.017007 1 model_config_utils.cc:1841] 	ModelConfig::optimization::cuda::graph_spec::input::value::dim
+I0411 05:50:24.017012 1 model_config_utils.cc:1841] 	ModelConfig::output::dims
+I0411 05:50:24.017019 1 model_config_utils.cc:1841] 	ModelConfig::output::reshape::shape
+I0411 05:50:24.017025 1 model_config_utils.cc:1841] 	ModelConfig::sequence_batching::direct::max_queue_delay_microseconds
+I0411 05:50:24.017031 1 model_config_utils.cc:1841] 	ModelConfig::sequence_batching::max_sequence_idle_microseconds
+I0411 05:50:24.017036 1 model_config_utils.cc:1841] 	ModelConfig::sequence_batching::oldest::max_queue_delay_microseconds
+I0411 05:50:24.017057 1 model_config_utils.cc:1841] 	ModelConfig::sequence_batching::state::dims
+I0411 05:50:24.017063 1 model_config_utils.cc:1841] 	ModelConfig::sequence_batching::state::initial_state::dims
+I0411 05:50:24.017068 1 model_config_utils.cc:1841] 	ModelConfig::version_policy::specific::versions
+I0411 05:50:24.037845 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_1 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model
+I0411 05:50:27.994957 1 python_be.cc:1791] model configuration:
+{
+    "name": "inferless-model",
+    "platform": "",
+    "backend": "python",
+    "version_policy": {
+        "latest": {
+            "num_versions": 1
+        }
+    },
+    "max_batch_size": 0,
+    "input": [
+        {
+            "name": "prompt",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        }
+    ],
+    "output": [],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 05:50:27.999211 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 05:50:28.000356 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 05:50:28.021233 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_2 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+/usr/local/lib/python3.10/dist-packages/huggingface_hub/file_download.py:653: UserWarning: Not enough free disk space to download the file. The expected file size is: 9948.85 MB. The target location /tmp/hf-cache/hub/models--codellama--CodeLlama-13b-Instruct-hf/blobs only has 8742.82 MB free disk space.
+  warnings.warn(</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-04-11 05:53:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Translation Pipeline</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/translation-pipeline.git</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"filename\", \"shape\": [1], \"data\": [\"https://inferless-public.s3.amazonaws.com/ss_gt_1.wav\"], \"datatype\": \"BYTES\"}, {\"name\": \"start_time\", \"shape\": [1], 
+\"data\": [\"0:15\"], \"datatype\": \"BYTES\"}, {\"name\": \"end_time\", \"shape\": [1], \"data\": [\"0:30\"], \"datatype\": \"BYTES\"}, {\"name\": \"vad\", \"shape\": [1], \"data\": [\"vad-algorithm\"], 
+\"datatype\": \"BYTES\"}, {\"name\": \"vad_silence\", \"shape\": [1], \"data\": [0.212], \"datatype\": \"FP32\"}, {\"name\": \"model\", \"shape\": [1], \"data\": [\"model-name\"], \"datatype\": 
+\"BYTES\"}, {\"name\": \"target_lang\", \"shape\": [1], \"data\": [\"fr\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{"error":"Failed to process the request(s) for model instance 'inferless-model_0', message: FileNotFoundError: [Errno 2] No such file or directory: 'None/audio.wav'\n\nAt:\n  /models/inferless-model/1/app.py(27): download_audio_file\n  /models/inferless-model/1/app.py(39): infer\n  /models/inferless-model/1/model.py(102): execute\n"}</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "1.5%",
+    "memory_used": "1205.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+            "name": "end_time",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        },
+        {
+            "name": "vad",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        },
+        {
+            "name": "vad_silence",
+            "data_type": "TYPE_FP32",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        },
+        {
+            "name": "model",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        },
+        {
+            "name": "target_lang",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        }
+    ],
+    "output": [],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 06:00:58.003180 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 06:00:58.004440 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 06:00:58.028634 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_4 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+/usr/local/lib/python3.10/dist-packages/torch/_utils.py:831: UserWarning: TypedStorage is deprecated. It will be removed in the future and UntypedStorage will be the only storage class. This should only matter to you if you are using storages directly.  To access UntypedStorage directly, use tensor.untyped_storage() instead of tensor.storage()
+  return self.fget.__get__(instance, owner)()
+/usr/local/lib/python3.10/dist-packages/transformers/models/marian/tokenization_marian.py:175: UserWarning: Recommended: pip install sacremoses.
+  warnings.warn("Recommended: pip install sacremoses.")
+Device set to use cuda:0
+I0411 06:01:08.736127 1 python_be.cc:2076] TRITONBACKEND_ModelInstanceInitialize: instance initialization successful inferless-model_0 (device 0)
+I0411 06:01:08.736253 1 backend_model_instance.cc:806] Starting backend thread for inferless-model_0 at nice 0 on device 0...
+I0411 06:01:08.736458 1 model_lifecycle.cc:815] successfully loaded 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-04-11 06:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Book Audio Summary Generator</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Book-Audio-Summary-Generator.git</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"book_url\", \"shape\": [1], \"data\": [\"https://github.com/rbgo404/Files/raw/main/LearnGenerativeAI.pdf\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{"error":"Request for unknown model: 'inferless-model' has no available versions"}</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.6%",
+    "memory_used": "491.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/layers/xtts/gpt.py(11): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/models/xtts.py(13): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/configs/xtts_config.py(5): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/__init__.py(16): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap&gt;(992): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /models/inferless-model/1/app.py(4): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /models/inferless-model/1/model.py(3): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+I0411 07:47:00.318201 1 python_be.cc:2034] TRITONBACKEND_ModelFinalize: delete model state
+E0411 07:47:00.318243 1 model_lifecycle.cc:626] failed to load 'inferless-model' version 1: Internal: ImportError: cannot import name 'LogitsWarper' from 'transformers' (/usr/local/lib/python3.10/dist-packages/transformers/__init__.py)
+At:
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/layers/tortoise/arch_utils.py(9): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/layers/tortoise/autoregressive.py(13): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/layers/xtts/gpt.py(11): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/models/xtts.py(13): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/tts/configs/xtts_config.py(5): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /usr/local/lib/python3.10/dist-packages/TTS/__init__.py(16): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap&gt;(992): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /models/inferless-model/1/app.py(4): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+  /models/inferless-model/1/model.py(3): &lt;module&gt;
+  &lt;frozen importlib._bootstrap&gt;(241): _call_with_frames_removed
+  &lt;frozen importlib._bootstrap_external&gt;(883): exec_module
+  &lt;frozen importlib._bootstrap&gt;(703): _load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1006): _find_and_load_unlocked
+  &lt;frozen importlib._bootstrap&gt;(1027): _find_and_load
+I0411 07:47:00.318315 1 model_lifecycle.cc:753] failed to load 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-04-11 07:48:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tenyxchat 8X7B V1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/TenyxChat-8x7B-v1.git</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"prompt\", \"shape\": [1], \"data\": [\"What is an AI?\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{"error":"Request for unknown model: 'inferless-model' has no available versions"}</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.6%",
+    "memory_used": "491.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+        "latest": {
+            "num_versions": 1
+        }
+    },
+    "max_batch_size": 0,
+    "input": [
+        {
+            "name": "prompt",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        }
+    ],
+    "output": [],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 08:02:33.456898 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 08:02:33.460235 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 08:02:33.483241 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_4 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+/usr/local/lib/python3.10/dist-packages/huggingface_hub/file_download.py:797: FutureWarning: `resume_download` is deprecated and will be removed in version 1.0.0. Downloads always resume when possible. If you want to force a new download, use `force_download=True`.
+  warnings.warn(
+Loading checkpoint shards:   0% 0/19 [00:00&lt;?, ?it/s]
+Loading checkpoint shards:   5% 1/19 [00:01&lt;00:20,  1.15s/it]
+Loading checkpoint shards:  11% 2/19 [00:02&lt;00:17,  1.02s/it]
+Loading checkpoint shards:  16% 3/19 [00:03&lt;00:15,  1.01it/s]
+Loading checkpoint shards:  21% 4/19 [00:03&lt;00:14,  1.04it/s]
+Loading checkpoint shards:  26% 5/19 [00:04&lt;00:13,  1.05it/s]
+Loading checkpoint shards:  32% 6/19 [00:05&lt;00:12,  1.06it/s]
+Loading checkpoint shards:  37% 7/19 [00:06&lt;00:11,  1.07it/s]
+Loading checkpoint shards:  42% 8/19 [00:07&lt;00:10,  1.07it/s]
+Loading checkpoint shards:  47% 9/19 [00:08&lt;00:09,  1.07it/s]
+Loading checkpoint shards:  53% 10/19 [00:09&lt;00:08,  1.08it/s]
+Loading checkpoint shards:  58% 11/19 [00:10&lt;00:07,  1.08it/s]
+Loading checkpoint shards:  63% 12/19 [00:11&lt;00:06,  1.08it/s]
+Loading checkpoint shards:  68% 13/19 [00:12&lt;00:05,  1.08it/s]
+Loading checkpoint shards:  74% 14/19 [00:13&lt;00:04,  1.08it/s]
+Loading checkpoint shards:  79% 15/19 [00:14&lt;00:03,  1.07it/s]
+Loading checkpoint shards:  84% 16/19 [00:15&lt;00:02,  1.07it/s]
+Loading checkpoint shards:  89% 17/19 [00:16&lt;00:01,  1.08it/s]
+Loading checkpoint shards:  95% 18/19 [00:16&lt;00:00,  1.07it/s]
+Loading checkpoint shards: 100% 19/19 [00:17&lt;00:00,  1.12it/s]
+Loading checkpoint shards: 100% 19/19 [00:17&lt;00:00,  1.07it/s]
+I0411 08:03:00.453460 1 pb_stub.cc:323] Failed to initialize Python stub: ValueError: The model has been loaded with `accelerate` and therefore cannot be moved to a specific device. Please discard the `device` argument when creating your pipeline object.
+At:
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/base.py(790): __init__
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/text_generation.py(70): __init__
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/__init__.py(1070): pipeline
+  /models/inferless-model/1/app.py(20): initialize
+  /models/inferless-model/1/model.py(67): initialize
+I0411 08:03:01.148846 1 python_be.cc:2195] TRITONBACKEND_ModelInstanceFinalize: delete instance state
+I0411 08:03:01.159487 1 python_be.cc:2034] TRITONBACKEND_ModelFinalize: delete model state
+E0411 08:03:01.159519 1 model_lifecycle.cc:626] failed to load 'inferless-model' version 1: Internal: ValueError: The model has been loaded with `accelerate` and therefore cannot be moved to a specific device. Please discard the `device` argument when creating your pipeline object.
+At:
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/base.py(790): __init__
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/text_generation.py(70): __init__
+  /usr/local/lib/python3.10/dist-packages/transformers/pipelines/__init__.py(1070): pipeline
+  /models/inferless-model/1/app.py(20): initialize
+  /models/inferless-model/1/model.py(67): initialize
+I0411 08:03:01.159556 1 model_lifecycle.cc:753] failed to load 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Facebook Bart Cnn</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Facebook-bart-cnn.git</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"text\", \"shape\": [1], \"data\": [\"Natural language processing (NLP) refers to the branch of computer science\u2014and more specifically, the branch of artificial 
+intelligence or AI\u2014concerned with giving computers the ability to understand text and spoken words in much the same way human beings can. NLP combines computational linguistics\u2014rule-based 
+modeling of human language\u2014with statistical, machine learning, and deep learning models. Together, these technologies enable computers to process human language in the form of text or voice data and 
+to \u2018understand\u2019 its full meaning, complete with the speaker or writer\u2019s intent and sentiment.\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{"error":"failed to parse the request JSON buffer: Invalid escape character in string. at 181"}</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "3.0%",
+    "memory_used": "2471.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+I0411 08:12:33.789995 1 model_config_utils.cc:647] Server side auto-completed config: name: "inferless-model"
+input {
+  name: "text"
+  data_type: TYPE_STRING
+  dims: 1
+}
+output {
+  name: "generated_text"
+  data_type: TYPE_STRING
+  dims: 1
+}
+instance_group {
+  kind: KIND_GPU
+}
+default_model_filename: "model.py"
+backend: "python"
+I0411 08:12:33.790095 1 model_lifecycle.cc:462] loading: inferless-model:1
+I0411 08:12:33.790170 1 backend_model.cc:362] Adding default backend config setting: default-max-batch-size,4
+I0411 08:12:33.792568 1 python_be.cc:2011] TRITONBACKEND_ModelInitialize: inferless-model (version 1)
+I0411 08:12:33.813810 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_3 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model
+I0411 08:12:34.789134 1 pb_stub.cc:833] TypeError: TritonPythonModel.finalize() missing 1 required positional argument: 'args'
+I0411 08:12:35.539065 1 python_be.cc:2034] TRITONBACKEND_ModelFinalize: delete model state
+I0411 08:12:35.539103 1 model_lifecycle.cc:608] successfully unloaded 'inferless-model' version 1
+I0411 08:12:37.465397 1 python_be.cc:1791] model configuration:
+{
+    "name": "inferless-model",
+    "platform": "",
+    "backend": "python",
+    "version_policy": {
+        "latest": {
+            "num_versions": 1
+        }
+    },
+    "max_batch_size": 0,
+    "input": [
+        {
+            "name": "text",
+            "data_type": "TYPE_STRING",
+            "format": "FORMAT_NONE",
+            "dims": [
+                1
+            ],
+            "is_shape_tensor": false,
+            "allow_ragged_batch": false,
+            "optional": false
+        }
+    ],
+    "output": [
+        {
+            "name": "generated_text",
+            "data_type": "TYPE_STRING",
+            "dims": [
+                1
+            ],
+            "label_filename": "",
+            "is_shape_tensor": false
+        }
+    ],
+    "batch_input": [],
+    "batch_output": [],
+    "optimization": {
+        "priority": "PRIORITY_DEFAULT",
+        "input_pinned_memory": {
+            "enable": true
+        },
+        "output_pinned_memory": {
+            "enable": true
+        },
+        "gather_kernel_buffer_threshold": 0,
+        "eager_batching": false
+    },
+    "instance_group": [
+        {
+            "name": "inferless-model_0",
+            "kind": "KIND_GPU",
+            "count": 1,
+            "gpus": [
+                0
+            ],
+            "secondary_devices": [],
+            "profile": [],
+            "passive": false,
+            "host_policy": ""
+        }
+    ],
+    "default_model_filename": "model.py",
+    "cc_model_filenames": {},
+    "metric_tags": {},
+    "parameters": {},
+    "model_warmup": []
+}
+I0411 08:12:37.470176 1 python_be.cc:2055] TRITONBACKEND_ModelInstanceInitialize: inferless-model_0 (GPU device 0)
+I0411 08:12:37.471284 1 backend_model_instance.cc:105] Creating instance inferless-model_0 on GPU 0 (8.0) using artifact 'model.py'
+I0411 08:12:37.491483 1 stub_launcher.cc:257] Starting Python backend stub:  exec /opt/tritonserver/backends/python/triton_python_backend_stub /models/inferless-model/1/model.py triton_python_backend_shm_region_4 67108864 67108864 1 /opt/tritonserver/backends/python 336 inferless-model_0
+/usr/local/lib/python3.10/dist-packages/transformers/tokenization_utils_base.py:1601: FutureWarning: `clean_up_tokenization_spaces` was not set. It will be set to `True` by default. This behavior will be depracted in transformers v4.45, and will be then set to `False` by default. For more details check this issue: https://github.com/huggingface/transformers/issues/31884
+  warnings.warn(
+I0411 08:12:41.094863 1 python_be.cc:2076] TRITONBACKEND_ModelInstanceInitialize: instance initialization successful inferless-model_0 (device 0)
+I0411 08:12:41.094977 1 backend_model_instance.cc:806] Starting backend thread for inferless-model_0 at nice 0 on device 0...
+I0411 08:12:41.095179 1 model_lifecycle.cc:815] successfully loaded 'inferless-model'</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:13:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Llama3 Tenyxchat 70B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Llama3-TenyxChat-70B.git</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>curl --location 'http://localhost:8000/v2/models/inferless-model/infer'  --header 'Content-Type: application/json'  --data "{\"inputs\": [{\"name\": \"prompt\", \"shape\": [1], \"data\": [\"What is AI?\"], \"datatype\": \"BYTES\"}]}"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{"error":"Request for unknown model: 'inferless-model' has no available versions"}</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.6%",
+    "memory_used": "491.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[...truncated...]
+model-00016-of-00030.safetensors:  72% 3.37G/4.66G [00:22&lt;00:02, 546MB/s]
+model-00016-of-00030.safetensors:  74% 3.44G/4.66G [00:22&lt;00:02, 529MB/s]
+model-00016-of-00030.safetensors:  75% 3.50G/4.66G [00:23&lt;00:02, 481MB/s]
+model-00016-of-00030.safetensors:  76% 3.56G/4.66G [00:23&lt;00:02, 498MB/s]
+model-00016-of-00030.safetensors:  78% 3.64G/4.66G [00:23&lt;00:01, 540MB/s]
+model-00016-of-00030.safetensors:  80% 3.71G/4.66G [00:23&lt;00:01, 559MB/s]
+model-00016-of-00030.safetensors:  81% 3.79G/4.66G [00:23&lt;00:01, 593MB/s]
+model-00016-of-00030.safetensors:  83% 3.86G/4.66G [00:23&lt;00:01, 560MB/s]
+model-00016-of-00030.safetensors:  84% 3.92G/4.66G [00:23&lt;00:01, 541MB/s]
+model-00016-of-00030.safetensors:  85% 3.98G/4.66G [00:23&lt;00:01, 470MB/s]
+model-00016-of-00030.safetensors:  87% 4.04G/4.66G [00:24&lt;00:01, 450MB/s]
+model-00016-of-00030.safetensors:  88% 4.09G/4.66G [00:24&lt;00:01, 317MB/s]
+model-00016-of-00030.safetensors:  90% 4.19G/4.66G [00:24&lt;00:01, 412MB/s]
+model-00016-of-00030.safetensors:  92% 4.28G/4.66G [00:24&lt;00:00, 486MB/s]
+model-00016-of-00030.safetensors:  94% 4.37G/4.66G [00:24&lt;00:00, 578MB/s]
+model-00016-of-00030.safetensors:  95% 4.44G/4.66G [00:24&lt;00:00, 606MB/s]
+model-00016-of-00030.safetensors:  97% 4.54G/4.66G [00:24&lt;00:00, 679MB/s]
+model-00016-of-00030.safetensors:  99% 4.62G/4.66G [00:25&lt;00:00, 671MB/s]
+model-00016-of-00030.safetensors: 100% 4.66G/4.66G [00:25&lt;00:00, 185MB/s]
+model-00017-of-00030.safetensors:   0% 0.00/4.66G [00:00&lt;?, ?B/s]
+model-00017-of-00030.safetensors:   0% 10.5M/4.66G [00:00&lt;04:38, 16.7MB/s]
+model-00017-of-00030.safetensors:   0% 21.0M/4.66G [00:00&lt;02:33, 30.3MB/s]
+model-00017-of-00030.safetensors:   1% 31.5M/4.66G [00:00&lt;02:04, 37.2MB/s]
+model-00017-of-00030.safetensors:   1% 41.9M/4.66G [00:01&lt;02:09, 35.7MB/s]
+model-00017-of-00030.safetensors:   1% 62.9M/4.66G [00:01&lt;01:34, 48.7MB/s]
+model-00017-of-00030.safetensors:   2% 105M/4.66G [00:01&lt;00:45, 99.6MB/s] 
+model-00017-of-00030.safetensors:   3% 126M/4.66G [00:01&lt;00:39, 116MB/s] 
+model-00017-of-00030.safetensors:   3% 147M/4.66G [00:01&lt;00:34, 131MB/s]
+model-00017-of-00030.safetensors:   4% 168M/4.66G [00:02&lt;00:30, 146MB/s]
+model-00017-of-00030.safetensors:   4% 199M/4.66G [00:02&lt;00:25, 173MB/s]
+model-00017-of-00030.safetensors:   5% 220M/4.66G [00:02&lt;00:31, 143MB/s]
+model-00017-of-00030.safetensors:   6% 273M/4.66G [00:02&lt;00:19, 222MB/s]
+model-00017-of-00030.safetensors:   7% 304M/4.66G [00:02&lt;00:18, 231MB/s]
+model-00017-of-00030.safetensors:   8% 388M/4.66G [00:02&lt;00:12, 329MB/s]
+model-00017-of-00030.safetensors:  10% 451M/4.66G [00:02&lt;00:11, 354MB/s]
+model-00017-of-00030.safetensors:  11% 535M/4.66G [00:03&lt;00:09, 452MB/s]
+model-00017-of-00030.safetensors:  13% 587M/4.66G [00:03&lt;00:09, 439MB/s]
+model-00017-of-00030.safetensors:  14% 640M/4.66G [00:03&lt;00:08, 454MB/s]
+model-00017-of-00030.safetensors:  16% 724M/4.66G [00:03&lt;00:07, 505MB/s]
+model-00017-of-00030.safetensors:  18% 828M/4.66G [00:03&lt;00:06, 629MB/s]
+model-00017-of-00030.safetensors:  20% 912M/4.66G [00:03&lt;00:05, 638MB/s]
+model-00017-of-00030.safetensors:  21% 986M/4.66G [00:03&lt;00:06, 565MB/s]
+model-00017-of-00030.safetensors:  23% 1.07G/4.66G [00:03&lt;00:05, 611MB/s]
+model-00017-of-00030.safetensors:  25% 1.14G/4.66G [00:04&lt;00:06, 512MB/s]
+model-00017-of-00030.safetensors:  26% 1.21G/4.66G [00:04&lt;00:06, 520MB/s]
+model-00017-of-00030.safetensors:  27% 1.27G/4.66G [00:11&lt;01:45, 32.2MB/s]
+model-00017-of-00030.safetensors:  29% 1.36G/4.66G [00:11&lt;01:06, 49.8MB/s]
+model-00017-of-00030.safetensors:  31% 1.43G/4.66G [00:11&lt;00:49, 65.3MB/s]
+model-00017-of-00030.safetensors:  32% 1.49G/4.66G [00:11&lt;00:37, 84.6MB/s]
+model-00017-of-00030.safetensors:  33% 1.55G/4.66G [00:11&lt;00:28, 111MB/s] 
+model-00017-of-00030.safetensors:  35% 1.61G/4.66G [00:11&lt;00:23, 131MB/s]
+model-00017-of-00030.safetensors:  36% 1.67G/4.66G [00:12&lt;00:19, 153MB/s]
+model-00017-of-00030.safetensors:  37% 1.71G/4.66G [00:12&lt;00:16, 178MB/s]
+model-00017-of-00030.safetensors:  38% 1.79G/4.66G [00:12&lt;00:11, 256MB/s]
+model-00017-of-00030.safetensors:  40% 1.86G/4.66G [00:12&lt;00:09, 284MB/s]
+model-00017-of-00030.safetensors:  41% 1.91G/4.66G [00:12&lt;00:08, 321MB/s]
+model-00017-of-00030.safetensors:  42% 1.96G/4.66G [00:12&lt;00:07, 351MB/s]
+model-00017-of-00030.safetensors:  43% 2.01G/4.66G [00:16&lt;00:59, 44.4MB/s]
+model-00017-of-00030.safetensors:  45% 2.10G/4.66G [00:16&lt;00:36, 69.5MB/s]
+model-00017-of-00030.safetensors:  47% 2.19G/4.66G [00:16&lt;00:23, 106MB/s] 
+model-00017-of-00030.safetensors:  49% 2.26G/4.66G [00:16&lt;00:16, 143MB/s]
+model-00017-of-00030.safetensors:  50% 2.33G/4.66G [00:16&lt;00:13, 178MB/s]
+model-00017-of-00030.safetensors:  51% 2.40G/4.66G [00:17&lt;00:09, 229MB/s]
+model-00017-of-00030.safetensors:  53% 2.46G/4.66G [00:17&lt;00:08, 273MB/s]
+model-00017-of-00030.safetensors:  54% 2.53G/4.66G [00:17&lt;00:08, 260MB/s]
+model-00017-of-00030.safetensors:  56% 2.59G/4.66G [00:17&lt;00:07, 296MB/s]
+model-00017-of-00030.safetensors:  57% 2.64G/4.66G [00:17&lt;00:06, 311MB/s]
+model-00017-of-00030.safetensors:  58% 2.69G/4.66G [00:17&lt;00:06, 314MB/s]
+model-00017-of-00030.safetensors:  59% 2.74G/4.66G [00:18&lt;00:06, 297MB/s]
+model-00017-of-00030.safetensors:  60% 2.78G/4.66G [00:18&lt;00:06, 294MB/s]
+model-00017-of-00030.safetensors:  61% 2.83G/4.66G [00:18&lt;00:05, 330MB/s]
+model-00017-of-00030.safetensors:  62% 2.88G/4.66G [00:18&lt;00:04, 366MB/s]
+model-00017-of-00030.safetensors:  64% 2.98G/4.66G [00:18&lt;00:03, 488MB/s]
+model-00017-of-00030.safetensors:  65% 3.04G/4.66G [00:18&lt;00:03, 518MB/s]
+model-00017-of-00030.safetensors:  67% 3.10G/4.66G [00:18&lt;00:03, 492MB/s]
+model-00017-of-00030.safetensors:  68% 3.19G/4.66G [00:18&lt;00:02, 577MB/s]
+model-00017-of-00030.safetensors:  70% 3.27G/4.66G [00:19&lt;00:02, 640MB/s]
+model-00017-of-00030.safetensors:  72% 3.34G/4.66G [00:19&lt;00:02, 612MB/s]
+model-00017-of-00030.safetensors:  73% 3.42G/4.66G [00:19&lt;00:02, 589MB/s]
+model-00017-of-00030.safetensors:  75% 3.48G/4.66G [00:19&lt;00:02, 569MB/s]
+model-00017-of-00030.safetensors:  76% 3.55G/4.66G [00:19&lt;00:01, 573MB/s]
+model-00017-of-00030.safetensors:  78% 3.62G/4.66G [00:19&lt;00:02, 465MB/s]
+model-00017-of-00030.safetensors:  79% 3.69G/4.66G [00:19&lt;00:01, 501MB/s]
+model-00017-of-00030.safetensors:  80% 3.75G/4.66G [00:19&lt;00:01, 504MB/s]
+model-00017-of-00030.safetensors:  82% 3.81G/4.66G [00:20&lt;00:01, 477MB/s]
+model-00017-of-00030.safetensors:  83% 3.87G/4.66G [00:20&lt;00:01, 469MB/s]
+model-00017-of-00030.safetensors:  84% 3.92G/4.66G [00:20&lt;00:01, 453MB/s]
+model-00017-of-00030.safetensors:  85% 3.98G/4.66G [00:20&lt;00:01, 468MB/s]
+model-00017-of-00030.safetensors:  87% 4.05G/4.66G [00:20&lt;00:01, 497MB/s]
+model-00017-of-00030.safetensors:  89% 4.14G/4.66G [00:20&lt;00:00, 587MB/s]
+model-00017-of-00030.safetensors:  90% 4.20G/4.66G [00:20&lt;00:00, 573MB/s]
+model-00017-of-00030.safetensors:  92% 4.29G/4.66G [00:20&lt;00:00, 616MB/s]
+model-00017-of-00030.safetensors:  94% 4.37G/4.66G [00:21&lt;00:00, 660MB/s]
+model-00017-of-00030.safetensors:  95% 4.44G/4.66G [00:21&lt;00:00, 657MB/s]
+model-00017-of-00030.safetensors:  97% 4.54G/4.66G [00:21&lt;00:00, 678MB/s]
+model-00017-of-00030.safetensors:  99% 4.62G/4.66G [00:21&lt;00:00, 696MB/s]
+model-00017-of-00030.safetensors: 100% 4.66G/4.66G [00:21&lt;00:00, 216MB/s]
+/usr/local/lib/python3.10/dist-packages/huggingface_hub/file_download.py:653: UserWarning: Not enough free disk space to download the file. The expected file size is: 4999.71 MB. The target location /tmp/hf-cache/hub/models--tenyx--Llama3-TenyxChat-70B/blobs only has 4932.16 MB free disk space.
+  warnings.warn(</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Smaug 72B</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Smaug-72B.git</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Idefics 9B Instruct 8Bit</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/idefics-9b-instruct-8bit.git</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Llama 2 13B Chat Awq</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Llama-2-13b-chat-AWQ.git</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Stable Diffusion 3.5 Large Turbo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Stable-Diffusion-3.5-large-turbo.git</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-04-11 08:56:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Command R V01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Command-r-v01.git</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Flan Ul2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://github.com/inferless/Flan-UL2.git</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No curl command available</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[
+  {
+    "id": 0,
+    "name": "NVIDIA A100 80GB PCIe",
+    "load": "0.0%",
+    "memory_util": "0.0%",
+    "memory_used": "1.0MB / 81920.0MB"
+  }
+]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-04-11 09:10:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
